--- a/optima/standard-test-data-transit-test.xlsx
+++ b/optima/standard-test-data-transit-test.xlsx
@@ -2761,7 +2761,7 @@
   <dimension ref="A1:AI374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3039,7 +3039,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -3438,7 +3438,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>

--- a/optima/standard-test-data-transit-test.xlsx
+++ b/optima/standard-test-data-transit-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Death Rate (Other Causes)</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -655,6 +660,12 @@
       <c r="B2" t="str">
         <f>LEFT(A2,3)&amp;"1"</f>
         <v>Pop1</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,7 +695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -714,7 +727,7 @@
         <v>Pop1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -2760,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3039,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -3438,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>

--- a/optima/standard-test-data-transit-test.xlsx
+++ b/optima/standard-test-data-transit-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -2773,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI374"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4908,7 +4908,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>

--- a/optima/standard-test-data-transit-test.xlsx
+++ b/optima/standard-test-data-transit-test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Fraction</t>
   </si>
 </sst>
 </file>
@@ -2773,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3049,10 +3052,10 @@
         <v>Population 3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -3451,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
